--- a/2019-1/Taller 2/SolT2P1B&P2B.xlsx
+++ b/2019-1/Taller 2/SolT2P1B&P2B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/GoogleDrive/Work/UdeC/Cursos/2019-1/Optimización/2 Talleres/Taller 2/Enunciado-Solución/Solución/Solver Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AE734-2DC7-1D42-9DC1-D4BCCAB06B2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4D010-9AA7-9E4E-8C33-DDFF5E3DA85D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25580" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="900" windowWidth="25580" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P1B" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>FO</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>Disponibilidad</t>
-  </si>
-  <si>
     <t>Densidad Minima Gasolina Corriente</t>
   </si>
   <si>
@@ -316,6 +313,12 @@
   </si>
   <si>
     <t>Demanda Caracas</t>
+  </si>
+  <si>
+    <t>Disponibilidad Petroleo Liviano</t>
+  </si>
+  <si>
+    <t>Disponibilidad Petroleo Pesado</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -774,7 +777,7 @@
       </c>
       <c r="B3" s="14">
         <f>25/60*(F8/0.65+F10/0.85)+30/60*(F9/0.65+F11/0.85)-15*(F8+F9)/40-20*(F10+F11)/50</f>
-        <v>5498.5994397759123</v>
+        <v>9622.5490196078463</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -834,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="15">
-        <v>14857.142857142857</v>
+        <v>25999.999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <v>17142.857142857145</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,15 +919,15 @@
         <v>34</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>31</v>
@@ -934,7 +937,7 @@
       </c>
       <c r="D16" s="15">
         <f>(1-0.7/0.65)*F8+(1-0.7/0.85)*F10</f>
-        <v>1882.3529411764723</v>
+        <v>3294.1176470588262</v>
       </c>
       <c r="E16" s="16">
         <f>(F8+F10)/(F8/0.65+F10/0.85)</f>
@@ -946,7 +949,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>30</v>
@@ -956,7 +959,7 @@
       </c>
       <c r="D17" s="15">
         <f>(1-0.75/0.65)*F8+(1-0.75/0.85)*F10</f>
-        <v>-268.90756302520754</v>
+        <v>-470.58823529411347</v>
       </c>
       <c r="E17" s="16">
         <f>(F8+F10)/(F8/0.65+F10/0.85)</f>
@@ -968,7 +971,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>31</v>
@@ -990,7 +993,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>30</v>
@@ -1012,7 +1015,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>31</v>
@@ -1034,7 +1037,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>31</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>30</v>
@@ -1065,12 +1068,12 @@
         <v>32000</v>
       </c>
       <c r="D22" s="15">
-        <f>F8+F10</f>
-        <v>32000</v>
+        <f>F8+F9</f>
+        <v>25999.999999999996</v>
       </c>
       <c r="E22" s="16">
-        <f>F8+F10</f>
-        <v>32000</v>
+        <f>F8+F9</f>
+        <v>25999.999999999996</v>
       </c>
       <c r="F22" s="16">
         <v>32000</v>
@@ -1078,7 +1081,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>30</v>
@@ -1087,12 +1090,12 @@
         <v>30000</v>
       </c>
       <c r="D23" s="16">
-        <f>F9+F11</f>
-        <v>0</v>
+        <f>F10+F11</f>
+        <v>30000</v>
       </c>
       <c r="E23" s="16">
-        <f>F9+F11</f>
-        <v>0</v>
+        <f>F10+F11</f>
+        <v>30000</v>
       </c>
       <c r="F23" s="16">
         <v>30000</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>30</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>30</v>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>30</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>31</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>31</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>31</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>31</v>
